--- a/Data/kospi/table6.xlsx
+++ b/Data/kospi/table6.xlsx
@@ -423,13 +423,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>2237</v>
+        <v>531</v>
       </c>
       <c r="D2">
-        <v>2274</v>
+        <v>588</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>768</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,13 +453,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>135</v>
-      </c>
-      <c r="E4">
-        <v>0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,13 +465,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1318</v>
+        <v>1022</v>
       </c>
       <c r="D5">
-        <v>1224</v>
+        <v>1037</v>
       </c>
       <c r="E5">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -483,13 +480,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1386</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>1248</v>
       </c>
       <c r="E6">
-        <v>0.45</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
